--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.022621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.022621.xlsx_with_dialog_acts.xlsx
@@ -821,12 +821,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -982,12 +982,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1790,12 +1790,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2368,12 +2368,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3022,12 +3022,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3259,12 +3259,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4012,12 +4012,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4996,12 +4996,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5038,12 +5038,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5446,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6186,12 +6186,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6438,12 +6438,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7297,12 +7297,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8706,12 +8706,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9000,12 +9000,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9897,12 +9897,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10569,12 +10569,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12261,12 +12261,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12413,12 +12413,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13373,12 +13373,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13415,12 +13415,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13926,12 +13926,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13968,12 +13968,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14625,12 +14625,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15199,12 +15199,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15985,12 +15985,12 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16523,12 +16523,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18146,12 +18146,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18474,12 +18474,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18720,12 +18720,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18910,12 +18910,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19121,12 +19121,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19673,12 +19673,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19711,12 +19711,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20365,12 +20365,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21091,12 +21091,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
